--- a/pred_ohlcv/54_21/2019-10-27 ITC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 ITC ohlcv.xlsx
@@ -1068,7 +1068,7 @@
         <v>-1207.891799999997</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-10314.9724</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-9954.070399999995</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-9943.639999999996</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-10251.8513</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-7686.766299999997</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-7686.766299999997</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-7686.766299999997</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-7686.766299999997</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-13674.8877</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-13674.8877</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-6444.296499999996</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-6725.962299999996</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>2362.849600000004</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>2412.849600000004</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>57058.396</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>59193.4364</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>59193.4364</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>59193.4364</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>59193.4364</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>59193.4364</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>59193.4364</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>52373.8034</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>55791.71419999999</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>55249.35809999999</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>55249.35809999999</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>56989.21809999999</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>56989.21809999999</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>45015.40439999999</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>70980.17289999999</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>70980.17289999999</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>70587.34329999999</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>70323.09169999999</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>75274.07949999999</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>75274.07949999999</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>75274.07949999999</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>75274.07949999999</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>75274.07949999999</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>75274.07949999999</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>77961.77639999999</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>80521.45499999999</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>71864.6732</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>71865.78320000001</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>40032.82220000001</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>40548.24890000001</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>40548.24890000001</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>31486.8063</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>31486.8063</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>28062.1283</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>28063.1283</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>28063.1283</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>14586.2601</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>14586.2601</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>14586.2601</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>32338.486</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>28018.486</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>28018.486</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>28018.486</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>28019.666</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>28019.666</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>31564.6424</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>31564.6424</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>31564.6424</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>31564.6424</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>45095.07090000001</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>45095.07090000001</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>52123.15810000001</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>52123.15810000001</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>52123.15810000001</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>52123.15810000001</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>14370.51880000001</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>14370.51880000001</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>26306.2326</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>27742.6828</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>19632.1297</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>20898.6635</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>10019.4045</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-15193.7792</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-15193.7792</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-18384.4231</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-16883.4194</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-16883.4194</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-26704.5525</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-26704.5525</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-27036.3972</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-27 ITC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-27 ITC ohlcv.xlsx
@@ -808,7 +808,7 @@
         <v>9703.933300000002</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -912,7 +912,7 @@
         <v>8465.922400000003</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>8826.824400000003</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>9263.294700000004</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>9057.655400000003</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>9057.655400000003</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>5172.338800000003</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-1207.891799999997</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-10314.9724</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-9954.070399999995</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-9943.639999999996</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-7686.766299999997</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-7686.766299999997</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-7686.766299999997</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-7686.766299999997</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-13674.8877</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-13674.8877</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-6444.296499999996</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-6950.362599999996</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>2362.849600000004</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>57058.396</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>59193.4364</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>59193.4364</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>59193.4364</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>59193.4364</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>59193.4364</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>59193.4364</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>52373.8034</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>55791.71419999999</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>55249.35809999999</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>55249.35809999999</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>56989.21809999999</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>56989.21809999999</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>45015.40439999999</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>70980.17289999999</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>70980.17289999999</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>70587.34329999999</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>70323.09169999999</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>75274.07949999999</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>75274.07949999999</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>75274.07949999999</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>75274.07949999999</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>75274.07949999999</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>75274.07949999999</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>77961.77639999999</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>80521.45499999999</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>80522.55499999999</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>80522.55499999999</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>71604.6152</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>71865.78320000001</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>40548.24890000001</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>40548.24890000001</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>40548.24890000001</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>40548.24890000001</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>31486.8063</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>31486.8063</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>28062.1283</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>28063.1283</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>28063.1283</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>14586.2601</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>14586.2601</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>14586.2601</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>14586.2601</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>32338.486</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>28018.486</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>28018.486</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>28018.486</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>28019.666</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>28019.666</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>31564.6424</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>31564.6424</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>31564.6424</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>31564.6424</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>45095.07090000001</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>52123.15810000001</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>52123.15810000001</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>52123.15810000001</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>14370.51880000001</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>14370.51880000001</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>26306.2326</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>27742.6828</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>19632.1297</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>20898.6635</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>10019.4045</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-15193.7792</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-15193.7792</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
